--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -252,6 +252,59 @@
     </r>
   </si>
   <si>
+    <t>REF_ORDER_TYPES</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>REF_PROC_EVENT_ARCHIVE_TYPES</t>
+  </si>
+  <si>
+    <t>REF_VISIT_TYPES</t>
+  </si>
+  <si>
+    <t>FACT_VISIT_SERVICES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>To be created.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Based mainly on VISIT_SEGMENT.</t>
+    </r>
+  </si>
+  <si>
+    <t>Not needed. See DIM_VISIT_SERVICE_TYPES above</t>
+  </si>
+  <si>
+    <t>Instead ot this table, create synonym REF_VISIT_SERVICE_TYPES -&gt; VISIT_SERVICE_TYPE.
+Add table FACT_VISIT_SERVICES - see below.</t>
+  </si>
+  <si>
+    <t>FACT_PATIENT_PRESCRIPTIONS</t>
+  </si>
+  <si>
+    <t>Please replicate functionality from PT005.</t>
+  </si>
+  <si>
+    <t>FACT_RESULTS</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -314,63 +367,10 @@
         <charset val="204"/>
       </rPr>
       <t>, if you need this table in CDW, please:
-1) create a DDL script (you can copy it from GIT\NYCHHC\Projects\Metrics\Common);
+1) create a DDL script; you can copy it from GIT\NYCHHC\Projects\Metrics\Common;
 2) create a source view;
 3) add entry to CNF.</t>
     </r>
-  </si>
-  <si>
-    <t>REF_ORDER_TYPES</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>REF_PROC_EVENT_ARCHIVE_TYPES</t>
-  </si>
-  <si>
-    <t>REF_VISIT_TYPES</t>
-  </si>
-  <si>
-    <t>FACT_VISIT_SERVICES</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>To be created.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Based mainly on VISIT_SEGMENT.</t>
-    </r>
-  </si>
-  <si>
-    <t>Not needed. See DIM_VISIT_SERVICE_TYPES above</t>
-  </si>
-  <si>
-    <t>Instead ot this table, create synonym REF_VISIT_SERVICE_TYPES -&gt; VISIT_SERVICE_TYPE.
-Add table FACT_VISIT_SERVICES - see below.</t>
-  </si>
-  <si>
-    <t>FACT_PATIENT_PRESCRIPTIONS</t>
-  </si>
-  <si>
-    <t>Please replicate functionality from PT005.</t>
-  </si>
-  <si>
-    <t>FACT_RESULTS</t>
   </si>
 </sst>
 </file>
@@ -492,47 +492,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +817,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,29 +831,29 @@
     <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -893,7 +893,7 @@
       <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -937,7 +937,7 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -958,7 +958,7 @@
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -981,7 +981,7 @@
       <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1013,7 +1013,7 @@
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1022,22 +1022,22 @@
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1046,12 +1046,12 @@
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1069,18 +1069,18 @@
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>54</v>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1101,19 +1101,19 @@
       <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1122,8 +1122,8 @@
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>46</v>
+      <c r="G14" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,17 +1145,17 @@
       <c r="F15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
@@ -1166,19 +1166,19 @@
       <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
@@ -1189,21 +1189,21 @@
       <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1212,19 +1212,19 @@
       <c r="F18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>50</v>
+      <c r="A19" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -1235,18 +1235,18 @@
       <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1267,19 +1267,19 @@
       <c r="F21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1288,21 +1288,21 @@
       <c r="F22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1311,30 +1311,30 @@
       <c r="F23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>53</v>
+      <c r="G23" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1343,82 +1343,82 @@
       <c r="F25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -1427,62 +1427,62 @@
       <c r="F29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="A31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>52</v>
+      <c r="G31" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1500,10 +1500,10 @@
       <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1523,8 +1523,8 @@
       <c r="E34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1542,8 +1542,8 @@
       <c r="E35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A14:G16">

--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Start schema" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Start schema'!$F$1:$F$35</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
   <si>
     <t>Table name</t>
   </si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t>FACT_PATIENT_PRESCRIPTIONS</t>
-  </si>
-  <si>
-    <t>Please replicate functionality from PT005.</t>
   </si>
   <si>
     <t>FACT_RESULTS</t>
@@ -371,6 +371,9 @@
 2) create a source view;
 3) add entry to CNF.</t>
     </r>
+  </si>
+  <si>
+    <t>Need to replicate functionality from PT005.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,11 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
     <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1365,12 +1365,12 @@
         <v>17</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>11</v>
@@ -1402,7 +1402,9 @@
       <c r="D28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1554,6 +1556,6 @@
     <mergeCell ref="G33:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
   <si>
     <t>Table name</t>
   </si>
@@ -303,74 +303,6 @@
   </si>
   <si>
     <t>FACT_RESULTS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Oleg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>no PK or UK!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Steve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, if you need this table in CDW, please:
-1) create a DDL script; you can copy it from GIT\NYCHHC\Projects\Metrics\Common;
-2) create a source view;
-3) add entry to CNF.</t>
-    </r>
   </si>
   <si>
     <t>Need to replicate functionality from PT005.</t>
@@ -820,7 +752,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,17 +1035,17 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1122,9 +1054,7 @@
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1349,23 +1279,23 @@
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,14 +810,14 @@
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>

--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>37</v>

--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Start schema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Start schema'!$F$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Start schema'!$F$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
   <si>
     <t>Table name</t>
   </si>
@@ -161,18 +161,12 @@
     <t>FACT_PATIENT_DIAGNOSES</t>
   </si>
   <si>
-    <t>REF_PROC_EVENT_PROVIDER</t>
-  </si>
-  <si>
     <t>FACT_VISIT_METRIC_RESULTS</t>
   </si>
   <si>
     <t>FACT_VISITS</t>
   </si>
   <si>
-    <t>MAP_DISCHARGE_TYPE</t>
-  </si>
-  <si>
     <t>FACT_VISIT_PAYERS</t>
   </si>
   <si>
@@ -188,55 +182,7 @@
     <t>Steve will re-populate this table with new sequence, trigger, trim/intcap name.</t>
   </si>
   <si>
-    <t>See DIM_DISCHARGE_TYPES above</t>
-  </si>
-  <si>
-    <r>
-      <t>DIM_VISIT_SERVICE_TYPE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>S</t>
-    </r>
-  </si>
-  <si>
-    <t>MAP_VISIT_SERVICE_TYPE</t>
-  </si>
-  <si>
     <t>MAP_DIAGNOSES_CODES</t>
-  </si>
-  <si>
-    <r>
-      <t>Steve is going to move this data to
-FACT_VISIT_METRIC_RESULTS .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Then he will drop this table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -292,20 +238,19 @@
     </r>
   </si>
   <si>
-    <t>Not needed. See DIM_VISIT_SERVICE_TYPES above</t>
-  </si>
-  <si>
-    <t>Instead ot this table, create synonym REF_VISIT_SERVICE_TYPES -&gt; VISIT_SERVICE_TYPE.
-Add table FACT_VISIT_SERVICES - see below.</t>
-  </si>
-  <si>
     <t>FACT_PATIENT_PRESCRIPTIONS</t>
   </si>
   <si>
     <t>FACT_RESULTS</t>
   </si>
   <si>
-    <t>Need to replicate functionality from PT005.</t>
+    <t>REF_VISIT_SERVICE_TYPES</t>
+  </si>
+  <si>
+    <t>FACT_VISIT_DIAGNOSES</t>
+  </si>
+  <si>
+    <t>Need to add PATIENT_KEY and FACILITY_KEY</t>
   </si>
 </sst>
 </file>
@@ -315,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,14 +284,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -439,9 +376,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,8 +394,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,25 +704,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -808,7 +745,7 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
@@ -826,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,7 +851,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,8 +882,8 @@
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
+      <c r="C9" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
@@ -955,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -978,41 +915,39 @@
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1079,13 +1014,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
@@ -1102,13 +1037,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
@@ -1123,94 +1058,80 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>11</v>
@@ -1218,13 +1139,11 @@
       <c r="F22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
+      <c r="A23" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>12</v>
@@ -1232,8 +1151,8 @@
       <c r="C23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>12</v>
+      <c r="D23" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
@@ -1242,42 +1161,54 @@
         <v>24</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>11</v>
@@ -1288,34 +1219,32 @@
       <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>12</v>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G27" s="8"/>
     </row>
@@ -1323,29 +1252,31 @@
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>11</v>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>11</v>
+      <c r="A29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -1353,72 +1284,70 @@
       <c r="D29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>11</v>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>51</v>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>12</v>
@@ -1432,58 +1361,16 @@
       <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A14:G16">
     <sortCondition ref="A13"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" r:id="rId1"/>

--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GIT\NYCHHC\Projects\DataWarehouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\NYCHHC\Projects\DataWarehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
   <si>
     <t>Table name</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Need to add PATIENT_KEY and FACILITY_KEY</t>
+  </si>
+  <si>
+    <t>REF_FINANCIAL_CLASS</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -396,6 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,10 +1325,10 @@
       <c r="E31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1342,8 +1348,8 @@
       <c r="E32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1361,8 +1367,31 @@
       <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A14:G16">

--- a/Projects/DataWarehouse/DW_tables.xlsx
+++ b/Projects/DataWarehouse/DW_tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="54">
   <si>
     <t>Table name</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>REF_FINANCIAL_CLASS</t>
+  </si>
+  <si>
+    <t>STG_PATIENT_SECONDARY_NUMBER</t>
+  </si>
+  <si>
+    <t>Bridge table to map visit level MRN.</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,6 +1400,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A14:G16">
     <sortCondition ref="A13"/>
